--- a/Kecamatan.xlsx
+++ b/Kecamatan.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Charles\Downloads\freelance\kecamatan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA9A622C-7188-46F6-9DE6-B22B634F910B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A5D9237-96BD-4DC1-BECE-FDCC4ADD8474}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{973E4F9F-4D72-4AE3-A6E7-A8BB33C4960D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$334</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="941" uniqueCount="191">
   <si>
     <t>Lakarsantri</t>
   </si>
@@ -48,9 +51,6 @@
     <t>Trawas</t>
   </si>
   <si>
-    <t>Asemrowo</t>
-  </si>
-  <si>
     <t>Dukuhpakis</t>
   </si>
   <si>
@@ -156,9 +156,6 @@
     <t>Krembangan</t>
   </si>
   <si>
-    <t>Gunung Anyar</t>
-  </si>
-  <si>
     <t>Pilangkenceng</t>
   </si>
   <si>
@@ -178,6 +175,441 @@
   </si>
   <si>
     <t>Kecamatan</t>
+  </si>
+  <si>
+    <t>Not Respon</t>
+  </si>
+  <si>
+    <t>Cancel (Rumah akan dijual)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cancel </t>
+  </si>
+  <si>
+    <t>Cancel ,Terkendala Budget karena juga renovasi rumah</t>
+  </si>
+  <si>
+    <t>Negosiasi</t>
+  </si>
+  <si>
+    <t>Sudah Kirim Penawaran ke Pak Saiful,Belum Ada Feedback</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEAL </t>
+  </si>
+  <si>
+    <t>Diajukan Pimpinan</t>
+  </si>
+  <si>
+    <t>Masih Dipelajari</t>
+  </si>
+  <si>
+    <t>Dapat penawaran harga 3 jutaan</t>
+  </si>
+  <si>
+    <t>Pengajuan 5.500.000 tapi bllm ada feedback selanjutnya</t>
+  </si>
+  <si>
+    <t>DEAL</t>
+  </si>
+  <si>
+    <t>Menunggu acc bu Nike</t>
+  </si>
+  <si>
+    <t>Belum ada feedback</t>
+  </si>
+  <si>
+    <t>Belum ada  feedback</t>
+  </si>
+  <si>
+    <t>Not respon</t>
+  </si>
+  <si>
+    <t>Dapat penawaran lebih murah dari Good Skills</t>
+  </si>
+  <si>
+    <t>Belum ada respon</t>
+  </si>
+  <si>
+    <t>Masih diajukan pimpinan</t>
+  </si>
+  <si>
+    <t>Masih diajukan ke management</t>
+  </si>
+  <si>
+    <t>Belum ada Feedback</t>
+  </si>
+  <si>
+    <t>Sudah dikirim ke pihak owner,Nanti kalau sdh ada jawaban sy info ya</t>
+  </si>
+  <si>
+    <t>Masih dipertimbangkan dan juga mendapat penawaran dari rentokil</t>
+  </si>
+  <si>
+    <t>Mhn maaf mbak, sy sdh deal dg jasa anti rayap lain, mrk mau 7jt</t>
+  </si>
+  <si>
+    <t>Masih rundingan dengan suami</t>
+  </si>
+  <si>
+    <t>Negosiasi kemudian not feedback</t>
+  </si>
+  <si>
+    <t>Kirim penawaran ke pak Antok</t>
+  </si>
+  <si>
+    <t>Masih diajukan ke owner</t>
+  </si>
+  <si>
+    <t>Masih diajukan ke owner (Pak Ivan)</t>
+  </si>
+  <si>
+    <t>Not Feedback</t>
+  </si>
+  <si>
+    <t>Blm ada feedback dari pak Andre</t>
+  </si>
+  <si>
+    <t>Cancel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Waiting </t>
+  </si>
+  <si>
+    <t>Waiting</t>
+  </si>
+  <si>
+    <t>perbandingan dengan pest control lain</t>
+  </si>
+  <si>
+    <t>Belum ada Info</t>
+  </si>
+  <si>
+    <t>Sepertinya Deal,pengerjaan di januari</t>
+  </si>
+  <si>
+    <t>Diajukan ke pimpinan</t>
+  </si>
+  <si>
+    <t>Kirim Penawaran By email bu Sally &amp; Pak Rizal</t>
+  </si>
+  <si>
+    <t>Hanya tanya perbedaan harga dengan pricelist</t>
+  </si>
+  <si>
+    <t>Dirundingakan terlebih dahulu karena melebihi budget yg tersedia</t>
+  </si>
+  <si>
+    <t>Waiting (Menunggu jawaban dari pihak citraland apakah bolle menggunakan pest control di luar vendor dari citraland)</t>
+  </si>
+  <si>
+    <t>Info ke Pak Alex</t>
+  </si>
+  <si>
+    <t>Blm Ada Feedback dari pimpinan</t>
+  </si>
+  <si>
+    <t>Kirim By WA pak Sylvester</t>
+  </si>
+  <si>
+    <t>NOT RESPON</t>
+  </si>
+  <si>
+    <t>Diambil Alih Kantor Pusat</t>
+  </si>
+  <si>
+    <t>Kirim penawaran by Wa pak Prawiro,Hanya di Read Not respon.</t>
+  </si>
+  <si>
+    <t>Nanti Pak Bambang akan info ke Pak Wisnu</t>
+  </si>
+  <si>
+    <t>Kirim penawaran By WA pak Daniel</t>
+  </si>
+  <si>
+    <t>DEAL (mastikan apakah ada inlet/tidak,karena takut keramiknya rusak seperti pengerjaan TC di Duta Bayu)</t>
+  </si>
+  <si>
+    <t>Blm ada jawaban</t>
+  </si>
+  <si>
+    <t>Belun ada ACC dari pimpinan</t>
+  </si>
+  <si>
+    <t>Masih diajukan ke pimpinan</t>
+  </si>
+  <si>
+    <t>info ke pak alex</t>
+  </si>
+  <si>
+    <t>Masih perbandingan dengan vendor lain</t>
+  </si>
+  <si>
+    <t>Kirim penawaran ke Pak Alex</t>
+  </si>
+  <si>
+    <t>Kirim Penawaran ke Mb Ita</t>
+  </si>
+  <si>
+    <t>Kirim Penawaran ke Pak Sylevester</t>
+  </si>
+  <si>
+    <t>Setelah lebaran akan diberi info</t>
+  </si>
+  <si>
+    <t>CANCEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">diberikan penawaran vendor lain jauh lebih murah,sama - sama dari bayer tapi tidak tau jenis apa </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Negosiasi </t>
+  </si>
+  <si>
+    <t>TIDAK DULU</t>
+  </si>
+  <si>
+    <t>Kirim penawaran by Email</t>
+  </si>
+  <si>
+    <t>WAITING</t>
+  </si>
+  <si>
+    <t>Mau direnovasi terlebih dahulu</t>
+  </si>
+  <si>
+    <t>Tidak memerlukan Tc karena kata papa rangka terbuat dari besi semua</t>
+  </si>
+  <si>
+    <t>Masih perbandingan dengan beberapa vendor</t>
+  </si>
+  <si>
+    <t>Ganti dengan sistem inject dan sprying  DEAL</t>
+  </si>
+  <si>
+    <t>Masih dipertimbangkan</t>
+  </si>
+  <si>
+    <t>Dirundingkan dengan istri</t>
+  </si>
+  <si>
+    <t>penawaran terakhir di harga 2.200.000 tapi ditawar 2 juta</t>
+  </si>
+  <si>
+    <t>Minta survey ulang</t>
+  </si>
+  <si>
+    <t>Kirim penawaran ke Pak Gerry,Tapi belum ada feedback</t>
+  </si>
+  <si>
+    <t>Diajukan Ke Owner,Tapi belum ada feedbcak</t>
+  </si>
+  <si>
+    <t>Masih Koordinasi dengan kontraktor</t>
+  </si>
+  <si>
+    <t>Masih belum ada feedback dari pak Jeff</t>
+  </si>
+  <si>
+    <t>Masih perbandingan dengan Vendor Lain</t>
+  </si>
+  <si>
+    <t>Masih negosiasi harga dengan pak Alex,masih di infokan untuk harga all rumah dan hanya spot tertentu</t>
+  </si>
+  <si>
+    <t>Masih diajukan ke Owner</t>
+  </si>
+  <si>
+    <t>Budget Tidak cukup,Ditawar 4 juta</t>
+  </si>
+  <si>
+    <t>Blm ada feedback dari pak George</t>
+  </si>
+  <si>
+    <t>Blm ada feedback dari pak Vincent</t>
+  </si>
+  <si>
+    <t>Masih Konsultasi dengan kontraktor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minta perincian secara detail untuk payment </t>
+  </si>
+  <si>
+    <t>Blm ada feedback</t>
+  </si>
+  <si>
+    <t>Minta Diskon</t>
+  </si>
+  <si>
+    <t>Masih dibicarakan dengan suami</t>
+  </si>
+  <si>
+    <t>Ditawar 10.473.057</t>
+  </si>
+  <si>
+    <t>Masih diajukan ke Pimpinan</t>
+  </si>
+  <si>
+    <t>DEAL ,Termin 4x</t>
+  </si>
+  <si>
+    <t>Masih dalam proses pengajuan ke pimpinan.(Saya teruskan ke katim sarpras)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Untuk TC Sudah dikerjakan rentokil dengan harga 14 juta dan tidak di info menggunakan chemical apa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Awal minta metode pipanisasi,pendapat client mahal,kemudian minta penwaran sprying saja,belum ada feedback (Belum ada keputusan) </t>
+  </si>
+  <si>
+    <t>Tidak mau di survey,minta estimasi penawaran,selanjutnya blm ada feedback</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Masih belum saat ini </t>
+  </si>
+  <si>
+    <t>Masih rundingan dengan keluarga</t>
+  </si>
+  <si>
+    <t>DEAL (Furniture tanpa garansi)</t>
+  </si>
+  <si>
+    <t>Tdk ada Feedback</t>
+  </si>
+  <si>
+    <t>Belum ada feedback/info dari Pak Alex</t>
+  </si>
+  <si>
+    <t>Blm ada feedback / blm ada info dari pak Alex</t>
+  </si>
+  <si>
+    <t>Masih diajukan ke HO jakarta</t>
+  </si>
+  <si>
+    <t>Blm ada feedbacak</t>
+  </si>
+  <si>
+    <t>Ambil vendor lain dengan harga 2.500.000 tapi tidak tau di beri chemical apa.</t>
+  </si>
+  <si>
+    <t>Belum ada feedback lanjutan dari Bu Lidia</t>
+  </si>
+  <si>
+    <t>minta harga lebih murah</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>pakai vendor lain yg lebih murah</t>
+  </si>
+  <si>
+    <t>Terlalu mahal</t>
+  </si>
+  <si>
+    <t>Masih diajukan ke manajemen</t>
+  </si>
+  <si>
+    <t>Tuban</t>
+  </si>
+  <si>
+    <t>Blimbing</t>
+  </si>
+  <si>
+    <t>Penjaringan</t>
+  </si>
+  <si>
+    <t>Tanggulangin</t>
+  </si>
+  <si>
+    <t>Semampir</t>
+  </si>
+  <si>
+    <t>Masih diajukan</t>
+  </si>
+  <si>
+    <t>no respon</t>
+  </si>
+  <si>
+    <t>NO, harga diluar budget. dapat vendor dgn harga 23rb/m</t>
+  </si>
+  <si>
+    <t>Dengan vendor lain</t>
+  </si>
+  <si>
+    <t>diajukan ke manajemen</t>
+  </si>
+  <si>
+    <t>diajukan ke pemilik rumah</t>
+  </si>
+  <si>
+    <t>Terlalu mahal, harga diluar budget</t>
+  </si>
+  <si>
+    <t>Menunggu konfirmasi setelah lebaran</t>
+  </si>
+  <si>
+    <t>Masih dibandingkan</t>
+  </si>
+  <si>
+    <t>Deal</t>
+  </si>
+  <si>
+    <t>ambil vendor yg harganya 7jt</t>
+  </si>
+  <si>
+    <t>Dengan vendor lain 3jt</t>
+  </si>
+  <si>
+    <t>Dapat vendor yg lebih murah</t>
+  </si>
+  <si>
+    <t>harga terlalu mahal</t>
+  </si>
+  <si>
+    <t>dgn vendor lain yg lebih murah</t>
+  </si>
+  <si>
+    <t>Masih dibandingkan dgn vendor lain</t>
+  </si>
+  <si>
+    <t>masih dipikirkan</t>
+  </si>
+  <si>
+    <t>terlalu mahal</t>
+  </si>
+  <si>
+    <t>masih menunggu</t>
+  </si>
+  <si>
+    <t>menunggu respon</t>
+  </si>
+  <si>
+    <t>masih diajukan</t>
+  </si>
+  <si>
+    <t>masih tender</t>
+  </si>
+  <si>
+    <t>dgn vendor lain harga lbh murah</t>
+  </si>
+  <si>
+    <t>engga dulu</t>
+  </si>
+  <si>
+    <t>No Feedback</t>
+  </si>
+  <si>
+    <t>Vendor lain</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>STATUS TERAKHIR (asli)</t>
+  </si>
+  <si>
+    <t>Status Terakhir</t>
   </si>
 </sst>
 </file>
@@ -185,9 +617,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="[$-409]d\-mmm\-yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yyyy;@"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -265,8 +697,111 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF434343"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFCC0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -303,8 +838,62 @@
         <bgColor rgb="FFFF0000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF93C47D"/>
+        <bgColor rgb="FF93C47D"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFE598"/>
+        <bgColor rgb="FFFFE598"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFE599"/>
+        <bgColor rgb="FFFFE599"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFE699"/>
+        <bgColor rgb="FFFFE699"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFD966"/>
+        <bgColor rgb="FFFFD966"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor rgb="FFFFF2CC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF9CB9C"/>
+        <bgColor rgb="FFF9CB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF6B26B"/>
+        <bgColor rgb="FFF6B26B"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -353,11 +942,92 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -367,61 +1037,320 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="8" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="8" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="9" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="11" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="11" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -736,1976 +1665,4562 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5458DAE5-ECE3-47D3-8B87-639C9F2AADBD}">
-  <dimension ref="A1:B248"/>
+  <dimension ref="A1:D334"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B214" sqref="B214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="14.41796875" style="23" customWidth="1"/>
     <col min="2" max="2" width="17.1015625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.3125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.26171875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="19" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>45</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>190</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5">
         <v>45292</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>6</v>
+      </c>
+      <c r="C2" s="55" t="s">
+        <v>186</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="5">
         <v>45292</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>26</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="5">
         <v>45292</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>13</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="5">
         <v>45292</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>13</v>
+      </c>
+      <c r="C5" s="55" t="s">
+        <v>186</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="5">
         <v>45292</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="17.100000000000001" x14ac:dyDescent="0.55000000000000004">
+        <v>36</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="17.100000000000001" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="6">
         <v>45323</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>20</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="5">
         <v>45323</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>13</v>
+      </c>
+      <c r="C8" s="55" t="s">
+        <v>186</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="5">
         <v>45323</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>8</v>
+      </c>
+      <c r="C9" s="55" t="s">
+        <v>186</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="5">
         <v>45323</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C10" s="55" t="s">
+        <v>186</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="5">
         <v>45323</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="15" x14ac:dyDescent="0.55000000000000004">
+        <v>21</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>186</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="7">
         <v>45323</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="17.100000000000001" x14ac:dyDescent="0.55000000000000004">
+        <v>13</v>
+      </c>
+      <c r="C12" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="17.100000000000001" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="8">
         <v>45352</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>5</v>
+      </c>
+      <c r="C13" s="55" t="s">
+        <v>186</v>
+      </c>
+      <c r="D13" s="26" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="5">
         <v>45352</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>40</v>
+      </c>
+      <c r="C14" s="55" t="s">
+        <v>186</v>
+      </c>
+      <c r="D14" s="26" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="5">
         <v>45352</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C15" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="5">
         <v>45352</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>14</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="26" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="5">
         <v>45352</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>6</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="25" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="5">
         <v>45355</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>26</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>186</v>
+      </c>
+      <c r="D18" s="26" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="20">
         <v>45383</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>14</v>
+      </c>
+      <c r="C19" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" s="28" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="21">
         <v>45385</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>6</v>
+      </c>
+      <c r="C20" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" s="28" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="5">
         <v>45389</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>22</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" s="25" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="20">
         <v>45413</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C22" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" s="29" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="5">
         <v>45416</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>31</v>
+      </c>
+      <c r="C23" s="26" t="s">
+        <v>186</v>
+      </c>
+      <c r="D23" s="25" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="5">
         <v>45419</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>6</v>
+      </c>
+      <c r="C24" s="26" t="s">
+        <v>186</v>
+      </c>
+      <c r="D24" s="25" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="5">
         <v>45420</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C25" s="26" t="s">
+        <v>186</v>
+      </c>
+      <c r="D25" s="25" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="5">
         <v>45421</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>20</v>
+      </c>
+      <c r="C26" s="55" t="s">
+        <v>186</v>
+      </c>
+      <c r="D26" s="25" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="22">
         <v>45444</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>29</v>
+      </c>
+      <c r="C27" s="26" t="s">
+        <v>186</v>
+      </c>
+      <c r="D27" s="25" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="5">
         <v>45444</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" ht="17.100000000000001" x14ac:dyDescent="0.55000000000000004">
+      <c r="C28" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="D28" s="25" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="17.100000000000001" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="9">
         <v>45445</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" ht="17.100000000000001" x14ac:dyDescent="0.55000000000000004">
+      <c r="C29" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="D29" s="30" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="17.100000000000001" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="9">
         <v>45446</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>30</v>
+      </c>
+      <c r="C30" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="D30" s="30" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="5">
         <v>45447</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>13</v>
+      </c>
+      <c r="C31" s="55" t="s">
+        <v>186</v>
+      </c>
+      <c r="D31" s="25" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="10">
         <v>45475</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>41</v>
+      </c>
+      <c r="C32" s="55" t="s">
+        <v>186</v>
+      </c>
+      <c r="D32" s="25" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="10">
         <v>45477</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>6</v>
+      </c>
+      <c r="C33" s="55" t="s">
+        <v>186</v>
+      </c>
+      <c r="D33" s="25" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="10">
         <v>45479</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C34" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="D34" s="25" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="10">
         <v>45480</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>4</v>
+      </c>
+      <c r="C35" s="55" t="s">
+        <v>186</v>
+      </c>
+      <c r="D35" s="25" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="10">
         <v>45481</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="17.100000000000001" x14ac:dyDescent="0.55000000000000004">
+        <v>6</v>
+      </c>
+      <c r="C36" s="55" t="s">
+        <v>186</v>
+      </c>
+      <c r="D36" s="25" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="17.100000000000001" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="11">
         <v>45482</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="17.100000000000001" x14ac:dyDescent="0.55000000000000004">
+        <v>4</v>
+      </c>
+      <c r="C37" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="D37" s="30" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="17.100000000000001" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="11">
         <v>45485</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>17</v>
+      </c>
+      <c r="C38" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="D38" s="30" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="10">
         <v>45487</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>8</v>
+      </c>
+      <c r="C39" s="25"/>
+      <c r="D39" s="25"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="10">
         <v>45490</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C40" s="25"/>
+      <c r="D40" s="25"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="12">
         <v>45510</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C41" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="D41" s="25" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="12">
         <v>45511</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C42" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="D42" s="31" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="12">
         <v>45512</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C43" s="26" t="s">
+        <v>186</v>
+      </c>
+      <c r="D43" s="32" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="12">
         <v>45513</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C44" s="26" t="s">
+        <v>186</v>
+      </c>
+      <c r="D44" s="32" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="25.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="13">
         <v>45536</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>20</v>
+      </c>
+      <c r="C45" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="D45" s="32" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="14">
         <v>45540</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>4</v>
+      </c>
+      <c r="C46" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="D46" s="33" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="14">
         <v>45543</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>4</v>
+      </c>
+      <c r="C47" s="26" t="s">
+        <v>186</v>
+      </c>
+      <c r="D47" s="32" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="14">
         <v>45545</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>6</v>
+      </c>
+      <c r="C48" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="D48" s="33" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="15">
         <v>45566</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>4</v>
+      </c>
+      <c r="C49" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="D49" s="34" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="15">
         <v>45568</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>16</v>
+      </c>
+      <c r="C50" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="D50" s="33" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="15">
         <v>45575</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C51" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="D51" s="31" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="25.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="15">
         <v>45579</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>34</v>
+      </c>
+      <c r="C52" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="D52" s="32" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="25.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="15">
         <v>45580</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C53" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="D53" s="32" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="15">
         <v>45581</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>6</v>
+      </c>
+      <c r="C54" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="D54" s="31" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="16">
         <v>45597</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>17</v>
+      </c>
+      <c r="C55" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="D55" s="35" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="16">
         <v>45597</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>4</v>
+      </c>
+      <c r="C56" s="35"/>
+      <c r="D56" s="35"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="16">
         <v>45597</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>22</v>
+      </c>
+      <c r="C57" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="D57" s="36" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="16">
         <v>45597</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>42</v>
+      </c>
+      <c r="C58" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="D58" s="36" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="16">
         <v>45597</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>8</v>
+      </c>
+      <c r="C59" s="26" t="s">
+        <v>186</v>
+      </c>
+      <c r="D59" s="35" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="16">
         <v>45597</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>25</v>
+      </c>
+      <c r="C60" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="D60" s="35" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="16">
         <v>45597</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>29</v>
+      </c>
+      <c r="C61" s="35"/>
+      <c r="D61" s="35"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="16">
         <v>45597</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C62" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="D62" s="35" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="16">
         <v>45597</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C63" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="D63" s="35" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="16">
         <v>45597</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>34</v>
+      </c>
+      <c r="C64" s="26" t="s">
+        <v>186</v>
+      </c>
+      <c r="D64" s="35" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="16">
         <v>45627</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C65" s="35"/>
+      <c r="D65" s="35"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="16">
         <v>45627</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>6</v>
+      </c>
+      <c r="C66" s="35"/>
+      <c r="D66" s="35"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="16">
         <v>45627</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>4</v>
+      </c>
+      <c r="C67" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="D67" s="37" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="16">
         <v>45627</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>22</v>
+      </c>
+      <c r="C68" s="26" t="s">
+        <v>186</v>
+      </c>
+      <c r="D68" s="35" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="16">
         <v>45627</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>22</v>
+      </c>
+      <c r="C69" s="26" t="s">
+        <v>186</v>
+      </c>
+      <c r="D69" s="32" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="16">
         <v>45627</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>7</v>
+      </c>
+      <c r="C70" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="D70" s="34" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="16">
         <v>45627</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>23</v>
+      </c>
+      <c r="C71" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="D71" s="38" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="16">
         <v>45627</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>8</v>
+      </c>
+      <c r="C72" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="D72" s="38" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="16">
         <v>45627</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>4</v>
+      </c>
+      <c r="C73" s="26" t="s">
+        <v>186</v>
+      </c>
+      <c r="D73" s="32" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="5">
         <v>45421</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>20</v>
+      </c>
+      <c r="C74" s="25"/>
+      <c r="D74" s="25"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="17">
         <v>44866</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C75" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="D75" s="39" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="17">
         <v>44866</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C76" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="D76" s="39" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="17">
         <v>44866</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C77" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="D77" s="40" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="17">
         <v>44866</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C78" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="D78" s="40" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="17">
         <v>44866</v>
       </c>
       <c r="B79" s="2"/>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C79" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="D79" s="39" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="17">
         <v>44866</v>
       </c>
       <c r="B80" s="2"/>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C80" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="D80" s="39" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="17">
         <v>44896</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C81" s="41" t="s">
+        <v>186</v>
+      </c>
+      <c r="D81" s="41" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="17">
         <v>44896</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>30</v>
+      </c>
+      <c r="C82" s="55" t="s">
+        <v>186</v>
+      </c>
+      <c r="D82" s="41" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="17">
         <v>44896</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>4</v>
+      </c>
+      <c r="C83" s="42"/>
+      <c r="D83" s="42"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="17">
         <v>44896</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>4</v>
+      </c>
+      <c r="C84" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="D84" s="43" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="17">
         <v>44896</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>5</v>
+      </c>
+      <c r="C85" s="55" t="s">
+        <v>186</v>
+      </c>
+      <c r="D85" s="41" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="17">
         <v>44896</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C86" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="D86" s="43" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="17">
         <v>44896</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>7</v>
+      </c>
+      <c r="C87" s="55" t="s">
+        <v>186</v>
+      </c>
+      <c r="D87" s="41" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="17">
         <v>44896</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>8</v>
+      </c>
+      <c r="C88" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="D88" s="43" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="17">
         <v>44896</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>9</v>
+      </c>
+      <c r="C89" s="55" t="s">
+        <v>186</v>
+      </c>
+      <c r="D89" s="44" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="17">
         <v>44896</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>10</v>
+      </c>
+      <c r="C90" s="55" t="s">
+        <v>186</v>
+      </c>
+      <c r="D90" s="44" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="17">
         <v>44896</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C91" s="45" t="s">
+        <v>57</v>
+      </c>
+      <c r="D91" s="45" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="17">
         <v>44896</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C92" s="46" t="s">
+        <v>50</v>
+      </c>
+      <c r="D92" s="46" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="17">
         <v>44896</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>8</v>
+      </c>
+      <c r="C93" s="46" t="s">
+        <v>50</v>
+      </c>
+      <c r="D93" s="46" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="17">
         <v>44927</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>11</v>
+      </c>
+      <c r="C94" s="46" t="s">
+        <v>50</v>
+      </c>
+      <c r="D94" s="46" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="17">
         <v>44927</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>12</v>
+      </c>
+      <c r="C95" s="46" t="s">
+        <v>50</v>
+      </c>
+      <c r="D95" s="46" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="17">
         <v>44927</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>13</v>
+      </c>
+      <c r="C96" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="D96" s="47" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="17">
         <v>44927</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>14</v>
+      </c>
+      <c r="C97" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="D97" s="48" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="17">
         <v>44927</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>13</v>
+      </c>
+      <c r="C98" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="D98" s="49" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="17">
         <v>44927</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>15</v>
+      </c>
+      <c r="C99" s="48" t="s">
+        <v>186</v>
+      </c>
+      <c r="D99" s="48" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="17">
         <v>44927</v>
       </c>
       <c r="B100" s="3"/>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C100" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="D100" s="50" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="17">
         <v>44927</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>8</v>
+      </c>
+      <c r="C101" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="D101" s="51" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="17">
         <v>44927</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>16</v>
+      </c>
+      <c r="C102" s="55" t="s">
+        <v>186</v>
+      </c>
+      <c r="D102" s="49" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="17">
         <v>44927</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C103" s="52" t="s">
+        <v>57</v>
+      </c>
+      <c r="D103" s="52" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="17">
         <v>44927</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>17</v>
+      </c>
+      <c r="C104" s="53" t="s">
+        <v>57</v>
+      </c>
+      <c r="D104" s="53" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="17">
         <v>44958</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>13</v>
+      </c>
+      <c r="C105" s="54" t="s">
+        <v>57</v>
+      </c>
+      <c r="D105" s="54" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="17">
         <v>44958</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>18</v>
+      </c>
+      <c r="C106" s="55" t="s">
+        <v>77</v>
+      </c>
+      <c r="D106" s="55" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="17">
         <v>44958</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>17</v>
+      </c>
+      <c r="C107" s="55" t="s">
+        <v>186</v>
+      </c>
+      <c r="D107" s="55" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="17">
         <v>44958</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>19</v>
+      </c>
+      <c r="C108" s="56" t="s">
+        <v>50</v>
+      </c>
+      <c r="D108" s="56" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="17">
         <v>44958</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>17</v>
+      </c>
+      <c r="C109" s="55" t="s">
+        <v>186</v>
+      </c>
+      <c r="D109" s="57" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="17">
         <v>44958</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>8</v>
+      </c>
+      <c r="C110" s="57" t="s">
+        <v>50</v>
+      </c>
+      <c r="D110" s="57" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="17">
         <v>44958</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>8</v>
+      </c>
+      <c r="C111" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="D111" s="58" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="17">
         <v>44958</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>8</v>
+      </c>
+      <c r="C112" s="55" t="s">
+        <v>186</v>
+      </c>
+      <c r="D112" s="57" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="17">
         <v>44958</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>8</v>
+      </c>
+      <c r="C113" s="59" t="s">
+        <v>57</v>
+      </c>
+      <c r="D113" s="59" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="17">
         <v>44958</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>20</v>
+      </c>
+      <c r="C114" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="D114" s="58" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="17">
         <v>44958</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>8</v>
+      </c>
+      <c r="C115" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="D115" s="58" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="17">
         <v>44958</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>21</v>
+      </c>
+      <c r="C116" s="60" t="s">
+        <v>50</v>
+      </c>
+      <c r="D116" s="60" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="17">
         <v>44986</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>22</v>
+      </c>
+      <c r="C117" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="D117" s="61" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="17">
         <v>44986</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>16</v>
+      </c>
+      <c r="C118" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="D118" s="62" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="17">
         <v>44986</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>17</v>
+      </c>
+      <c r="C119" s="63" t="s">
+        <v>186</v>
+      </c>
+      <c r="D119" s="63" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="17">
         <v>44986</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>6</v>
+      </c>
+      <c r="C120" s="64" t="s">
+        <v>57</v>
+      </c>
+      <c r="D120" s="64" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="17">
         <v>44986</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>17</v>
+      </c>
+      <c r="C121" s="62" t="s">
+        <v>50</v>
+      </c>
+      <c r="D121" s="62" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="17">
         <v>44986</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>23</v>
+      </c>
+      <c r="C122" s="62" t="s">
+        <v>50</v>
+      </c>
+      <c r="D122" s="62" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="17">
         <v>44986</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>8</v>
+      </c>
+      <c r="C123" s="63" t="s">
+        <v>50</v>
+      </c>
+      <c r="D123" s="63" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="17">
         <v>44986</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>4</v>
+      </c>
+      <c r="C124" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="D124" s="62" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="17">
         <v>44986</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>8</v>
+      </c>
+      <c r="C125" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="D125" s="61" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" ht="31.2" x14ac:dyDescent="0.6">
       <c r="A126" s="17">
         <v>44986</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C126" s="65" t="s">
+        <v>50</v>
+      </c>
+      <c r="D126" s="65" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A127" s="17">
         <v>44986</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>4</v>
+      </c>
+      <c r="C127" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="D127" s="65" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A128" s="17">
         <v>45017</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>24</v>
+      </c>
+      <c r="C128" s="65" t="s">
+        <v>50</v>
+      </c>
+      <c r="D128" s="66" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="17">
         <v>45017</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>25</v>
+      </c>
+      <c r="C129" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="D129" s="67" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="17">
         <v>45017</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>13</v>
+      </c>
+      <c r="C130" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="D130" s="67" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A131" s="17">
         <v>45017</v>
       </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C131" s="65" t="s">
+        <v>50</v>
+      </c>
+      <c r="D131" s="66" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="17">
         <v>45017</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>26</v>
+      </c>
+      <c r="C132" s="68" t="s">
+        <v>57</v>
+      </c>
+      <c r="D132" s="68" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" ht="29.1" x14ac:dyDescent="0.6">
       <c r="A133" s="17">
         <v>45017</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>4</v>
+      </c>
+      <c r="C133" s="65" t="s">
+        <v>50</v>
+      </c>
+      <c r="D133" s="66" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="17">
         <v>45017</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>27</v>
+      </c>
+      <c r="C134" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="D134" s="67" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A135" s="17">
         <v>45017</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>11</v>
+      </c>
+      <c r="C135" s="65" t="s">
+        <v>50</v>
+      </c>
+      <c r="D135" s="66" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="17">
         <v>45017</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C136" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="D136" s="67" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" s="17">
         <v>45017</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>8</v>
+      </c>
+      <c r="C137" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="D137" s="67" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" s="17">
         <v>45047</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>20</v>
+      </c>
+      <c r="C138" s="49" t="s">
+        <v>106</v>
+      </c>
+      <c r="D138" s="49" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" s="17">
         <v>45047</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C139" s="69" t="s">
+        <v>52</v>
+      </c>
+      <c r="D139" s="69" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" s="17">
         <v>45047</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>8</v>
+      </c>
+      <c r="C140" s="69" t="s">
+        <v>52</v>
+      </c>
+      <c r="D140" s="69" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" s="17">
         <v>45047</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>20</v>
+      </c>
+      <c r="C141" s="69" t="s">
+        <v>52</v>
+      </c>
+      <c r="D141" s="69" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="17">
         <v>45047</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>26</v>
+      </c>
+      <c r="C142" s="46" t="s">
+        <v>187</v>
+      </c>
+      <c r="D142" s="46" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" s="17">
         <v>45047</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>20</v>
+      </c>
+      <c r="C143" s="70" t="s">
+        <v>108</v>
+      </c>
+      <c r="D143" s="70" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" s="17">
         <v>45047</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C144" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="D144" s="70" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" s="17">
         <v>45047</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C145" s="71" t="s">
+        <v>188</v>
+      </c>
+      <c r="D145" s="71" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" s="17">
         <v>45047</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>4</v>
+      </c>
+      <c r="C146" s="72" t="s">
+        <v>52</v>
+      </c>
+      <c r="D146" s="72" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" s="17">
         <v>45047</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>26</v>
+      </c>
+      <c r="C147" s="73" t="s">
+        <v>52</v>
+      </c>
+      <c r="D147" s="73" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" s="17">
         <v>45047</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>28</v>
+      </c>
+      <c r="C148" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="D148" s="71" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" s="17">
         <v>45047</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>28</v>
+      </c>
+      <c r="C149" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="D149" s="71" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" s="17">
         <v>45047</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>14</v>
+      </c>
+      <c r="C150" s="74" t="s">
+        <v>50</v>
+      </c>
+      <c r="D150" s="74" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" s="17">
         <v>45078</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>4</v>
+      </c>
+      <c r="C151" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="D151" s="67" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" s="17">
         <v>45078</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>24</v>
+      </c>
+      <c r="C152" s="67" t="s">
+        <v>188</v>
+      </c>
+      <c r="D152" s="67" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" s="17">
         <v>45078</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>7</v>
+      </c>
+      <c r="C153" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="D153" s="67" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" s="17">
         <v>45078</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>6</v>
+      </c>
+      <c r="C154" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="D154" s="75" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" s="17">
         <v>45078</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>23</v>
+      </c>
+      <c r="C155" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="D155" s="76" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" s="17">
         <v>45078</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>25</v>
+      </c>
+      <c r="C156" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="D156" s="77" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" s="17">
         <v>45078</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>6</v>
+      </c>
+      <c r="C157" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="D157" s="77" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" s="17">
         <v>45078</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>6</v>
+      </c>
+      <c r="C158" s="78" t="s">
+        <v>57</v>
+      </c>
+      <c r="D158" s="78" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" s="17">
         <v>45078</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>13</v>
+      </c>
+      <c r="C159" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="D159" s="79" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" s="17">
         <v>45108</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>22</v>
+      </c>
+      <c r="C160" s="80" t="s">
+        <v>57</v>
+      </c>
+      <c r="D160" s="80" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" s="17">
         <v>45108</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C161" s="81" t="s">
+        <v>186</v>
+      </c>
+      <c r="D161" s="81" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" s="17">
         <v>45108</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C162" s="81" t="s">
+        <v>186</v>
+      </c>
+      <c r="D162" s="81" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" s="17">
         <v>45108</v>
       </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C163" s="82" t="s">
+        <v>50</v>
+      </c>
+      <c r="D163" s="82" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" s="17">
         <v>45108</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>7</v>
+      </c>
+      <c r="C164" s="81" t="s">
+        <v>186</v>
+      </c>
+      <c r="D164" s="82" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" s="17">
         <v>45108</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>4</v>
+      </c>
+      <c r="C165" s="81" t="s">
+        <v>186</v>
+      </c>
+      <c r="D165" s="82" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" s="17">
         <v>45108</v>
       </c>
       <c r="B166" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C166" s="82" t="s">
+        <v>50</v>
+      </c>
+      <c r="D166" s="82" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" s="17">
         <v>45108</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>30</v>
+      </c>
+      <c r="C167" s="81" t="s">
+        <v>186</v>
+      </c>
+      <c r="D167" s="82" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" s="17">
         <v>45108</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>17</v>
+      </c>
+      <c r="C168" s="82" t="s">
+        <v>50</v>
+      </c>
+      <c r="D168" s="82" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" s="17">
         <v>45108</v>
       </c>
       <c r="B169" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C169" s="82" t="s">
+        <v>50</v>
+      </c>
+      <c r="D169" s="82" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" s="17">
         <v>45108</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>17</v>
+      </c>
+      <c r="C170" s="81" t="s">
+        <v>186</v>
+      </c>
+      <c r="D170" s="82" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" s="17">
         <v>45108</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>6</v>
+      </c>
+      <c r="C171" s="82" t="s">
+        <v>50</v>
+      </c>
+      <c r="D171" s="82" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" s="17">
         <v>45108</v>
       </c>
       <c r="B172" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C172" s="82" t="s">
+        <v>50</v>
+      </c>
+      <c r="D172" s="82" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A173" s="17">
         <v>45108</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>29</v>
+      </c>
+      <c r="C173" s="82" t="s">
+        <v>50</v>
+      </c>
+      <c r="D173" s="82" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A174" s="17">
         <v>45108</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>5</v>
+      </c>
+      <c r="C174" s="81" t="s">
+        <v>186</v>
+      </c>
+      <c r="D174" s="82" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A175" s="17">
         <v>45108</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>6</v>
+      </c>
+      <c r="C175" s="83" t="s">
+        <v>57</v>
+      </c>
+      <c r="D175" s="83" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A176" s="17">
         <v>45108</v>
       </c>
       <c r="B176" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C176" s="81" t="s">
+        <v>186</v>
+      </c>
+      <c r="D176" s="82" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" ht="16.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" s="17">
         <v>45139</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>31</v>
+      </c>
+      <c r="C177" s="82" t="s">
+        <v>50</v>
+      </c>
+      <c r="D177" s="84" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" ht="16.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" s="17">
         <v>45139</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>14</v>
+      </c>
+      <c r="C178" s="82" t="s">
+        <v>50</v>
+      </c>
+      <c r="D178" s="84" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" ht="16.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A179" s="17">
         <v>45139</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>23</v>
+      </c>
+      <c r="C179" s="82" t="s">
+        <v>50</v>
+      </c>
+      <c r="D179" s="84" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" ht="33.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A180" s="17">
         <v>45139</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>24</v>
+      </c>
+      <c r="C180" s="82" t="s">
+        <v>50</v>
+      </c>
+      <c r="D180" s="84" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" ht="16.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A181" s="17">
         <v>45139</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>4</v>
+      </c>
+      <c r="C181" s="81" t="s">
+        <v>186</v>
+      </c>
+      <c r="D181" s="84" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" ht="33.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A182" s="17">
         <v>45139</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>22</v>
+      </c>
+      <c r="C182" s="82" t="s">
+        <v>50</v>
+      </c>
+      <c r="D182" s="84" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" ht="16.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A183" s="17">
         <v>45139</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>32</v>
+      </c>
+      <c r="C183" s="81" t="s">
+        <v>186</v>
+      </c>
+      <c r="D183" s="84" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" ht="16.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A184" s="17">
         <v>45139</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>33</v>
+      </c>
+      <c r="C184" s="81" t="s">
+        <v>186</v>
+      </c>
+      <c r="D184" s="84" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" ht="16.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A185" s="17">
         <v>45139</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>13</v>
+      </c>
+      <c r="C185" s="81" t="s">
+        <v>186</v>
+      </c>
+      <c r="D185" s="84" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" ht="16.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A186" s="17">
         <v>45139</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>17</v>
+      </c>
+      <c r="C186" s="81" t="s">
+        <v>186</v>
+      </c>
+      <c r="D186" s="84" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" ht="16.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A187" s="17">
         <v>45139</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>29</v>
+      </c>
+      <c r="C187" s="82" t="s">
+        <v>50</v>
+      </c>
+      <c r="D187" s="84" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" ht="16.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A188" s="17">
         <v>45139</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>14</v>
+      </c>
+      <c r="C188" s="81" t="s">
+        <v>186</v>
+      </c>
+      <c r="D188" s="84" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" ht="16.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A189" s="17">
         <v>45139</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>34</v>
+      </c>
+      <c r="C189" s="81" t="s">
+        <v>186</v>
+      </c>
+      <c r="D189" s="84" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" ht="33.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A190" s="17">
         <v>45139</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>4</v>
+      </c>
+      <c r="C190" s="82" t="s">
+        <v>50</v>
+      </c>
+      <c r="D190" s="84" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A191" s="17">
         <v>45170</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>35</v>
+      </c>
+      <c r="C191" s="82" t="s">
+        <v>50</v>
+      </c>
+      <c r="D191" s="85" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A192" s="17">
         <v>45170</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>6</v>
+      </c>
+      <c r="C192" s="82" t="s">
+        <v>50</v>
+      </c>
+      <c r="D192" s="85" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A193" s="17">
         <v>45170</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>17</v>
+      </c>
+      <c r="C193" s="86" t="s">
+        <v>52</v>
+      </c>
+      <c r="D193" s="86" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A194" s="17">
         <v>45200</v>
       </c>
       <c r="B194" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C194" s="82" t="s">
+        <v>50</v>
+      </c>
+      <c r="D194" s="87" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A195" s="17">
         <v>45200</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>36</v>
+      </c>
+      <c r="C195" s="88" t="s">
+        <v>187</v>
+      </c>
+      <c r="D195" s="88" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A196" s="17">
         <v>45200</v>
       </c>
       <c r="B196" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C196" s="87" t="s">
+        <v>186</v>
+      </c>
+      <c r="D196" s="87" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A197" s="17">
         <v>45200</v>
       </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C197" s="87"/>
+      <c r="D197" s="87"/>
+    </row>
+    <row r="198" spans="1:4" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A198" s="17">
         <v>45200</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>37</v>
+      </c>
+      <c r="C198" s="87" t="s">
+        <v>186</v>
+      </c>
+      <c r="D198" s="87" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A199" s="17">
         <v>45200</v>
       </c>
       <c r="B199" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C199" s="87" t="s">
+        <v>188</v>
+      </c>
+      <c r="D199" s="87" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A200" s="17">
         <v>45200</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>8</v>
+      </c>
+      <c r="C200" s="89" t="s">
+        <v>57</v>
+      </c>
+      <c r="D200" s="89" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A201" s="17">
         <v>45200</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>24</v>
+      </c>
+      <c r="C201" s="87" t="s">
+        <v>50</v>
+      </c>
+      <c r="D201" s="87" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A202" s="17">
         <v>45200</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>17</v>
+      </c>
+      <c r="C202" s="89" t="s">
+        <v>57</v>
+      </c>
+      <c r="D202" s="89" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A203" s="17">
         <v>45231</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>19</v>
+      </c>
+      <c r="C203" s="87" t="s">
+        <v>186</v>
+      </c>
+      <c r="D203" s="85" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A204" s="17">
         <v>45231</v>
       </c>
       <c r="B204" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C204" s="87" t="s">
+        <v>186</v>
+      </c>
+      <c r="D204" s="87" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A205" s="17">
         <v>45231</v>
       </c>
       <c r="B205" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C205" s="90" t="s">
+        <v>57</v>
+      </c>
+      <c r="D205" s="90" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A206" s="17">
         <v>45231</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>38</v>
+      </c>
+      <c r="C206" s="85"/>
+      <c r="D206" s="85"/>
+    </row>
+    <row r="207" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A207" s="17">
         <v>45231</v>
       </c>
       <c r="B207" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C207" s="87" t="s">
+        <v>186</v>
+      </c>
+      <c r="D207" s="87" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A208" s="17">
         <v>45231</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>4</v>
+      </c>
+      <c r="C208" s="87" t="s">
+        <v>186</v>
+      </c>
+      <c r="D208" s="87" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A209" s="17">
         <v>45231</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>30</v>
+      </c>
+      <c r="C209" s="87" t="s">
+        <v>50</v>
+      </c>
+      <c r="D209" s="87" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A210" s="17">
         <v>45231</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>24</v>
+      </c>
+      <c r="C210" s="87" t="s">
+        <v>186</v>
+      </c>
+      <c r="D210" s="87" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A211" s="17">
         <v>45231</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>14</v>
+      </c>
+      <c r="C211" s="85" t="s">
+        <v>187</v>
+      </c>
+      <c r="D211" s="85" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A212" s="17">
         <v>45231</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>8</v>
+      </c>
+      <c r="C212" s="91" t="s">
+        <v>57</v>
+      </c>
+      <c r="D212" s="91" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A213" s="17">
         <v>45261</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>26</v>
+      </c>
+      <c r="C213" s="92" t="s">
+        <v>57</v>
+      </c>
+      <c r="D213" s="92" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A214" s="17">
         <v>45261</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>25</v>
+      </c>
+      <c r="C214" s="87" t="s">
+        <v>186</v>
+      </c>
+      <c r="D214" s="93" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A215" s="17">
         <v>45261</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>15</v>
+      </c>
+      <c r="C215" s="92" t="s">
+        <v>57</v>
+      </c>
+      <c r="D215" s="92" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" ht="31.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A216" s="17">
         <v>45261</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>39</v>
+      </c>
+      <c r="C216" s="87" t="s">
+        <v>186</v>
+      </c>
+      <c r="D216" s="94" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" ht="16.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A217" s="18">
         <v>45139</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>32</v>
+      </c>
+      <c r="C217" s="87" t="s">
+        <v>186</v>
+      </c>
+      <c r="D217" s="95" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" ht="16.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A218" s="18">
         <v>45139</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>33</v>
+      </c>
+      <c r="C218" s="87" t="s">
+        <v>186</v>
+      </c>
+      <c r="D218" s="96" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" ht="16.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A219" s="18">
         <v>45139</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>13</v>
+      </c>
+      <c r="C219" s="87" t="s">
+        <v>186</v>
+      </c>
+      <c r="D219" s="96" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" ht="16.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A220" s="18">
         <v>45139</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>17</v>
+      </c>
+      <c r="C220" s="87" t="s">
+        <v>186</v>
+      </c>
+      <c r="D220" s="96" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" ht="16.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A221" s="18">
         <v>45139</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>29</v>
+      </c>
+      <c r="C221" s="96" t="s">
+        <v>50</v>
+      </c>
+      <c r="D221" s="96" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" ht="16.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A222" s="18">
         <v>45139</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>14</v>
+      </c>
+      <c r="C222" s="87" t="s">
+        <v>186</v>
+      </c>
+      <c r="D222" s="96" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" ht="16.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A223" s="18">
         <v>45139</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>34</v>
+      </c>
+      <c r="C223" s="87" t="s">
+        <v>186</v>
+      </c>
+      <c r="D223" s="96" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" ht="33.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A224" s="18">
         <v>45139</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>4</v>
+      </c>
+      <c r="C224" s="96" t="s">
+        <v>50</v>
+      </c>
+      <c r="D224" s="96" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" ht="16.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A225" s="18">
         <v>45170</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>17</v>
+      </c>
+      <c r="C225" s="87" t="s">
+        <v>186</v>
+      </c>
+      <c r="D225" s="96" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" ht="16.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A226" s="18">
         <v>45170</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>29</v>
+      </c>
+      <c r="C226" s="87" t="s">
+        <v>186</v>
+      </c>
+      <c r="D226" s="96" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" ht="16.8" x14ac:dyDescent="0.65">
       <c r="A227" s="18">
         <v>45200</v>
       </c>
       <c r="B227" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C227" s="97" t="s">
+        <v>57</v>
+      </c>
+      <c r="D227" s="97" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" ht="16.8" x14ac:dyDescent="0.65">
       <c r="A228" s="18">
         <v>45200</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>9</v>
+      </c>
+      <c r="C228" s="98" t="s">
+        <v>50</v>
+      </c>
+      <c r="D228" s="98" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" ht="16.8" x14ac:dyDescent="0.65">
       <c r="A229" s="18">
         <v>45200</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>43</v>
+      </c>
+      <c r="C229" s="98" t="s">
+        <v>188</v>
+      </c>
+      <c r="D229" s="98" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" ht="16.8" x14ac:dyDescent="0.65">
       <c r="A230" s="18">
         <v>45200</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>36</v>
+      </c>
+      <c r="C230" s="98" t="s">
+        <v>187</v>
+      </c>
+      <c r="D230" s="99" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" ht="16.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A231" s="18">
         <v>45231</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>29</v>
+      </c>
+      <c r="C231" s="96" t="s">
+        <v>186</v>
+      </c>
+      <c r="D231" s="96" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" ht="16.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A232" s="18">
         <v>45231</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>23</v>
+      </c>
+      <c r="C232" s="96" t="s">
+        <v>50</v>
+      </c>
+      <c r="D232" s="96" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" ht="16.8" x14ac:dyDescent="0.65">
       <c r="A233" s="18">
         <v>45231</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>29</v>
+      </c>
+      <c r="C233" s="100" t="s">
+        <v>57</v>
+      </c>
+      <c r="D233" s="100" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" ht="16.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A234" s="18">
         <v>45231</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>10</v>
+      </c>
+      <c r="C234" s="96" t="s">
+        <v>186</v>
+      </c>
+      <c r="D234" s="96" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" ht="16.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A235" s="18">
         <v>45231</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>16</v>
+      </c>
+      <c r="C235" s="96" t="s">
+        <v>186</v>
+      </c>
+      <c r="D235" s="96" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" ht="16.8" x14ac:dyDescent="0.65">
       <c r="A236" s="18">
         <v>45231</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>38</v>
+      </c>
+      <c r="C236" s="99" t="s">
+        <v>50</v>
+      </c>
+      <c r="D236" s="99" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" ht="16.8" x14ac:dyDescent="0.65">
       <c r="A237" s="18">
         <v>45231</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>4</v>
+      </c>
+      <c r="C237" s="96" t="s">
+        <v>186</v>
+      </c>
+      <c r="D237" s="99" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" ht="16.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A238" s="18">
         <v>45261</v>
       </c>
       <c r="B238" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C238" s="101" t="s">
+        <v>57</v>
+      </c>
+      <c r="D238" s="101" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" ht="16.8" x14ac:dyDescent="0.65">
       <c r="A239" s="18">
         <v>45261</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>24</v>
+      </c>
+      <c r="C239" s="100" t="s">
+        <v>57</v>
+      </c>
+      <c r="D239" s="100" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" ht="16.8" x14ac:dyDescent="0.65">
       <c r="A240" s="18">
         <v>45261</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>21</v>
+      </c>
+      <c r="C240" s="100" t="s">
+        <v>57</v>
+      </c>
+      <c r="D240" s="100" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" ht="16.8" x14ac:dyDescent="0.65">
       <c r="A241" s="18">
         <v>45261</v>
       </c>
       <c r="B241" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C241" s="96" t="s">
+        <v>186</v>
+      </c>
+      <c r="D241" s="99" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" ht="16.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A242" s="18">
         <v>45261</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>5</v>
+      </c>
+      <c r="C242" s="102" t="s">
+        <v>57</v>
+      </c>
+      <c r="D242" s="102" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A243" s="18">
         <v>45261</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>14</v>
+      </c>
+      <c r="C243" s="103"/>
+      <c r="D243" s="103"/>
+    </row>
+    <row r="244" spans="1:4" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A244" s="18">
         <v>45261</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>5</v>
+      </c>
+      <c r="C244" s="104" t="s">
+        <v>57</v>
+      </c>
+      <c r="D244" s="104" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" ht="16.8" x14ac:dyDescent="0.6">
       <c r="A245" s="18">
         <v>45261</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>4</v>
+      </c>
+      <c r="C245" s="96" t="s">
+        <v>186</v>
+      </c>
+      <c r="D245" s="105" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" ht="16.8" x14ac:dyDescent="0.6">
       <c r="A246" s="18">
         <v>45261</v>
       </c>
       <c r="B246" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C246" s="96" t="s">
+        <v>186</v>
+      </c>
+      <c r="D246" s="105" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" ht="16.8" x14ac:dyDescent="0.6">
       <c r="A247" s="18">
         <v>45261</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>34</v>
+      </c>
+      <c r="C247" s="96" t="s">
+        <v>186</v>
+      </c>
+      <c r="D247" s="105" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" ht="16.8" x14ac:dyDescent="0.6">
       <c r="A248" s="18">
         <v>45261</v>
       </c>
       <c r="B248" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C248" s="96" t="s">
+        <v>186</v>
+      </c>
+      <c r="D248" s="105" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A249" s="106">
+        <v>45292</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C249" s="109" t="s">
+        <v>50</v>
+      </c>
+      <c r="D249" s="109" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A250" s="106">
+        <v>45292</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C250" s="109" t="s">
+        <v>50</v>
+      </c>
+      <c r="D250" s="109" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A251" s="106">
+        <v>45292</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C251" s="109" t="s">
+        <v>50</v>
+      </c>
+      <c r="D251" s="109" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A252" s="106">
+        <v>45292</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C252" s="110" t="s">
+        <v>186</v>
+      </c>
+      <c r="D252" s="110" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A253" s="106">
+        <v>45292</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C253" s="111" t="s">
+        <v>57</v>
+      </c>
+      <c r="D253" s="111" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A254" s="106">
+        <v>45292</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C254" s="110" t="s">
+        <v>187</v>
+      </c>
+      <c r="D254" s="110" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A255" s="106">
+        <v>45323</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C255" s="110" t="s">
+        <v>186</v>
+      </c>
+      <c r="D255" s="110" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A256" s="106">
+        <v>45352</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C256" s="109" t="s">
+        <v>187</v>
+      </c>
+      <c r="D256" s="109" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A257" s="106">
+        <v>45352</v>
+      </c>
+      <c r="B257" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C257" s="111" t="s">
+        <v>57</v>
+      </c>
+      <c r="D257" s="111" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A258" s="106">
+        <v>45352</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C258" s="111" t="s">
+        <v>57</v>
+      </c>
+      <c r="D258" s="111" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A259" s="106">
+        <v>45352</v>
+      </c>
+      <c r="B259" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C259" s="110"/>
+      <c r="D259" s="110"/>
+    </row>
+    <row r="260" spans="1:4" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A260" s="106">
+        <v>45352</v>
+      </c>
+      <c r="B260" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C260" s="110" t="s">
+        <v>186</v>
+      </c>
+      <c r="D260" s="110" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A261" s="106">
+        <v>45352</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C261" s="110" t="s">
+        <v>50</v>
+      </c>
+      <c r="D261" s="110" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A262" s="106">
+        <v>45352</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C262" s="110" t="s">
+        <v>50</v>
+      </c>
+      <c r="D262" s="110" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A263" s="106">
+        <v>45352</v>
+      </c>
+      <c r="C263" s="110" t="s">
+        <v>50</v>
+      </c>
+      <c r="D263" s="110" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A264" s="106">
+        <v>45352</v>
+      </c>
+      <c r="B264" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C264" s="110" t="s">
+        <v>50</v>
+      </c>
+      <c r="D264" s="110" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A265" s="106">
+        <v>45352</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C265" s="111" t="s">
+        <v>57</v>
+      </c>
+      <c r="D265" s="111" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A266" s="106">
+        <v>45352</v>
+      </c>
+      <c r="C266" s="110" t="s">
+        <v>50</v>
+      </c>
+      <c r="D266" s="110" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A267" s="106">
+        <v>45352</v>
+      </c>
+      <c r="B267" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C267" s="111" t="s">
+        <v>57</v>
+      </c>
+      <c r="D267" s="111" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A268" s="106">
+        <v>45383</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C268" s="110" t="s">
+        <v>186</v>
+      </c>
+      <c r="D268" s="110" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A269" s="106">
+        <v>45383</v>
+      </c>
+      <c r="B269" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C269" s="110" t="s">
+        <v>186</v>
+      </c>
+      <c r="D269" s="110" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A270" s="106">
+        <v>45383</v>
+      </c>
+      <c r="C270" s="110" t="s">
+        <v>186</v>
+      </c>
+      <c r="D270" s="110" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A271" s="106">
+        <v>45383</v>
+      </c>
+      <c r="B271" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C271" s="111" t="s">
+        <v>171</v>
+      </c>
+      <c r="D271" s="111" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A272" s="106">
+        <v>45383</v>
+      </c>
+      <c r="B272" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C272" s="110" t="s">
+        <v>186</v>
+      </c>
+      <c r="D272" s="110" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A273" s="106">
+        <v>45383</v>
+      </c>
+      <c r="B273" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C273" s="110" t="s">
+        <v>187</v>
+      </c>
+      <c r="D273" s="110" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A274" s="106">
+        <v>45413</v>
+      </c>
+      <c r="B274" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C274" s="110" t="s">
+        <v>187</v>
+      </c>
+      <c r="D274" s="110" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A275" s="106">
+        <v>45413</v>
+      </c>
+      <c r="B275" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C275" s="110" t="s">
+        <v>186</v>
+      </c>
+      <c r="D275" s="110" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A276" s="106">
+        <v>45413</v>
+      </c>
+      <c r="B276" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C276" s="111" t="s">
+        <v>57</v>
+      </c>
+      <c r="D276" s="111" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A277" s="106">
+        <v>45413</v>
+      </c>
+      <c r="B277" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C277" s="110" t="s">
+        <v>186</v>
+      </c>
+      <c r="D277" s="110" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A278" s="106">
+        <v>45413</v>
+      </c>
+      <c r="B278" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C278" s="110" t="s">
+        <v>187</v>
+      </c>
+      <c r="D278" s="110" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A279" s="106">
+        <v>45413</v>
+      </c>
+      <c r="B279" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C279" s="110" t="s">
+        <v>50</v>
+      </c>
+      <c r="D279" s="110" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A280" s="106">
+        <v>45413</v>
+      </c>
+      <c r="B280" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C280" s="111" t="s">
+        <v>57</v>
+      </c>
+      <c r="D280" s="111" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A281" s="106">
+        <v>45413</v>
+      </c>
+      <c r="B281" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C281" s="110" t="s">
+        <v>50</v>
+      </c>
+      <c r="D281" s="110" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A282" s="106">
+        <v>45444</v>
+      </c>
+      <c r="B282" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C282" s="111" t="s">
+        <v>57</v>
+      </c>
+      <c r="D282" s="111" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A283" s="106">
+        <v>45444</v>
+      </c>
+      <c r="B283" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C283" s="110" t="s">
+        <v>187</v>
+      </c>
+      <c r="D283" s="110" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A284" s="106">
+        <v>45444</v>
+      </c>
+      <c r="B284" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="C284" s="111" t="s">
+        <v>57</v>
+      </c>
+      <c r="D284" s="111" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A285" s="106">
+        <v>45444</v>
+      </c>
+      <c r="B285" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C285" s="110" t="s">
+        <v>187</v>
+      </c>
+      <c r="D285" s="110" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A286" s="106">
+        <v>45444</v>
+      </c>
+      <c r="B286" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C286" s="110" t="s">
+        <v>50</v>
+      </c>
+      <c r="D286" s="110" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A287" s="106">
+        <v>45444</v>
+      </c>
+      <c r="B287" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C287" s="110" t="s">
+        <v>50</v>
+      </c>
+      <c r="D287" s="110" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A288" s="106">
+        <v>45444</v>
+      </c>
+      <c r="B288" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C288" s="110" t="s">
+        <v>187</v>
+      </c>
+      <c r="D288" s="110" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A289" s="106">
+        <v>45444</v>
+      </c>
+      <c r="B289" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C289" s="110" t="s">
+        <v>186</v>
+      </c>
+      <c r="D289" s="110" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A290" s="106">
+        <v>45444</v>
+      </c>
+      <c r="B290" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C290" s="110" t="s">
+        <v>186</v>
+      </c>
+      <c r="D290" s="110" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A291" s="106">
+        <v>45474</v>
+      </c>
+      <c r="B291" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C291" s="110" t="s">
+        <v>50</v>
+      </c>
+      <c r="D291" s="110" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A292" s="106">
+        <v>45474</v>
+      </c>
+      <c r="B292" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C292" s="111" t="s">
+        <v>57</v>
+      </c>
+      <c r="D292" s="111" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A293" s="106">
+        <v>45474</v>
+      </c>
+      <c r="B293" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C293" s="110" t="s">
+        <v>50</v>
+      </c>
+      <c r="D293" s="110" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A294" s="106">
+        <v>45474</v>
+      </c>
+      <c r="B294" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C294" s="111" t="s">
+        <v>57</v>
+      </c>
+      <c r="D294" s="111" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A295" s="106">
+        <v>45474</v>
+      </c>
+      <c r="B295" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C295" s="110" t="s">
+        <v>186</v>
+      </c>
+      <c r="D295" s="110" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A296" s="106">
+        <v>45474</v>
+      </c>
+      <c r="B296" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C296" s="111" t="s">
+        <v>57</v>
+      </c>
+      <c r="D296" s="111" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A297" s="106">
+        <v>45474</v>
+      </c>
+      <c r="B297" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C297" s="110" t="s">
+        <v>50</v>
+      </c>
+      <c r="D297" s="110" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A298" s="106">
+        <v>45474</v>
+      </c>
+      <c r="B298" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C298" s="112"/>
+      <c r="D298" s="112"/>
+    </row>
+    <row r="299" spans="1:4" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A299" s="106">
+        <v>45474</v>
+      </c>
+      <c r="B299" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C299" s="113"/>
+      <c r="D299" s="113"/>
+    </row>
+    <row r="300" spans="1:4" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A300" s="106">
+        <v>45474</v>
+      </c>
+      <c r="B300" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C300" s="114" t="s">
+        <v>57</v>
+      </c>
+      <c r="D300" s="114" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A301" s="106">
+        <v>45505</v>
+      </c>
+      <c r="B301" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C301" s="110" t="s">
+        <v>186</v>
+      </c>
+      <c r="D301" s="110" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A302" s="106">
+        <v>45505</v>
+      </c>
+      <c r="B302" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C302" s="110" t="s">
+        <v>186</v>
+      </c>
+      <c r="D302" s="110" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A303" s="106">
+        <v>45505</v>
+      </c>
+      <c r="B303" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C303" s="110" t="s">
+        <v>50</v>
+      </c>
+      <c r="D303" s="110" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A304" s="106">
+        <v>45505</v>
+      </c>
+      <c r="B304" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C304" s="111" t="s">
+        <v>57</v>
+      </c>
+      <c r="D304" s="111" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A305" s="106">
+        <v>45505</v>
+      </c>
+      <c r="B305" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C305" s="111" t="s">
+        <v>57</v>
+      </c>
+      <c r="D305" s="111" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A306" s="106">
+        <v>45505</v>
+      </c>
+      <c r="C306" s="110" t="s">
+        <v>50</v>
+      </c>
+      <c r="D306" s="110" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A307" s="106">
+        <v>45505</v>
+      </c>
+      <c r="B307" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C307" s="110" t="s">
+        <v>50</v>
+      </c>
+      <c r="D307" s="110" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A308" s="106">
+        <v>45505</v>
+      </c>
+      <c r="B308" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C308" s="111" t="s">
+        <v>57</v>
+      </c>
+      <c r="D308" s="111" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A309" s="106">
+        <v>45505</v>
+      </c>
+      <c r="B309" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C309" s="110" t="s">
+        <v>50</v>
+      </c>
+      <c r="D309" s="110" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A310" s="106">
+        <v>45536</v>
+      </c>
+      <c r="B310" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C310" s="112"/>
+      <c r="D310" s="112"/>
+    </row>
+    <row r="311" spans="1:4" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A311" s="106">
+        <v>45536</v>
+      </c>
+      <c r="B311" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C311" s="112"/>
+      <c r="D311" s="112"/>
+    </row>
+    <row r="312" spans="1:4" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A312" s="106">
+        <v>45536</v>
+      </c>
+      <c r="C312" s="112"/>
+      <c r="D312" s="112"/>
+    </row>
+    <row r="313" spans="1:4" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A313" s="107">
+        <v>45566</v>
+      </c>
+      <c r="B313" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C313" s="115" t="s">
+        <v>186</v>
+      </c>
+      <c r="D313" s="115" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A314" s="108">
+        <v>45566</v>
+      </c>
+      <c r="B314" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C314" s="116" t="s">
+        <v>50</v>
+      </c>
+      <c r="D314" s="116" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A315" s="108">
+        <v>45566</v>
+      </c>
+      <c r="B315" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C315" s="115" t="s">
+        <v>186</v>
+      </c>
+      <c r="D315" s="117" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A316" s="108">
+        <v>45566</v>
+      </c>
+      <c r="C316" s="115" t="s">
+        <v>186</v>
+      </c>
+      <c r="D316" s="118" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A317" s="108">
+        <v>45566</v>
+      </c>
+      <c r="B317" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C317" s="115" t="s">
+        <v>186</v>
+      </c>
+      <c r="D317" s="117" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A318" s="108">
+        <v>45566</v>
+      </c>
+      <c r="B318" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C318" s="118" t="s">
+        <v>57</v>
+      </c>
+      <c r="D318" s="118" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A319" s="108">
+        <v>45566</v>
+      </c>
+      <c r="B319" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C319" s="117" t="s">
+        <v>50</v>
+      </c>
+      <c r="D319" s="117" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A320" s="108">
+        <v>45566</v>
+      </c>
+      <c r="B320" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C320" s="116" t="s">
+        <v>50</v>
+      </c>
+      <c r="D320" s="116" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A321" s="108">
+        <v>45566</v>
+      </c>
+      <c r="B321" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C321" s="119" t="s">
+        <v>57</v>
+      </c>
+      <c r="D321" s="119" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A322" s="108">
+        <v>45566</v>
+      </c>
+      <c r="B322" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C322" s="118" t="s">
+        <v>57</v>
+      </c>
+      <c r="D322" s="118" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A323" s="108">
+        <v>45597</v>
+      </c>
+      <c r="B323" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C323" s="117" t="s">
+        <v>187</v>
+      </c>
+      <c r="D323" s="117" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A324" s="108">
+        <v>45597</v>
+      </c>
+      <c r="B324" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C324" s="120"/>
+      <c r="D324" s="120"/>
+    </row>
+    <row r="325" spans="1:4" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A325" s="108">
+        <v>45597</v>
+      </c>
+      <c r="B325" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C325" s="120"/>
+      <c r="D325" s="120"/>
+    </row>
+    <row r="326" spans="1:4" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A326" s="108">
+        <v>45597</v>
+      </c>
+      <c r="B326" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C326" s="117" t="s">
+        <v>188</v>
+      </c>
+      <c r="D326" s="117" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A327" s="108">
+        <v>45597</v>
+      </c>
+      <c r="B327" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C327" s="120"/>
+      <c r="D327" s="120"/>
+    </row>
+    <row r="328" spans="1:4" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A328" s="108">
+        <v>45597</v>
+      </c>
+      <c r="B328" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C328" s="118" t="s">
+        <v>57</v>
+      </c>
+      <c r="D328" s="118" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A329" s="108">
+        <v>45627</v>
+      </c>
+      <c r="B329" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C329" s="117" t="s">
+        <v>186</v>
+      </c>
+      <c r="D329" s="117" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A330" s="108">
+        <v>45627</v>
+      </c>
+      <c r="B330" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C330" s="117" t="s">
+        <v>186</v>
+      </c>
+      <c r="D330" s="117" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A331" s="108">
+        <v>45627</v>
+      </c>
+      <c r="B331" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C331" s="120"/>
+      <c r="D331" s="120"/>
+    </row>
+    <row r="332" spans="1:4" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A332" s="108">
+        <v>45627</v>
+      </c>
+      <c r="B332" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C332" s="118" t="s">
+        <v>57</v>
+      </c>
+      <c r="D332" s="118" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A333" s="108">
+        <v>45627</v>
+      </c>
+      <c r="B333" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C333" s="120"/>
+      <c r="D333" s="120"/>
+    </row>
+    <row r="334" spans="1:4" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A334" s="108">
+        <v>45627</v>
+      </c>
+      <c r="B334" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C334" s="120"/>
+      <c r="D334" s="120"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D334" xr:uid="{5458DAE5-ECE3-47D3-8B87-639C9F2AADBD}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>